--- a/ExcelFattureExample.xlsx
+++ b/ExcelFattureExample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>AMMINISTRATORE</t>
   </si>
@@ -83,27 +83,15 @@
     <t>SANIFICAZIONE</t>
   </si>
   <si>
-    <t xml:space="preserve">ANDREOZZI </t>
-  </si>
-  <si>
     <t>AVERSA</t>
   </si>
   <si>
     <t>SI</t>
   </si>
   <si>
-    <t>AVV.DE LUCA</t>
-  </si>
-  <si>
-    <t>AVV.GILBERTI</t>
-  </si>
-  <si>
     <t>TEVEROLA</t>
   </si>
   <si>
-    <t>AVV.LOFFREDO</t>
-  </si>
-  <si>
     <t>INIZIA 31.03.21 RECUPERA 1 INTERV AGOSTO (31.08)</t>
   </si>
   <si>
@@ -117,6 +105,21 @@
   </si>
   <si>
     <t>CONDOMINIO4</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST FATTURA OK </t>
+  </si>
+  <si>
+    <t>TEST FATTURA NO</t>
+  </si>
+  <si>
+    <t>NON PRESENTE SU ALTRO FILE</t>
+  </si>
+  <si>
+    <t>TEST_CON_CONDOMINIO_ASSENTE</t>
   </si>
 </sst>
 </file>
@@ -124,8 +127,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -177,7 +180,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +219,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -257,33 +272,35 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - Colore 4 2" xfId="4"/>
@@ -568,17 +585,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -649,7 +666,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -657,10 +674,10 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I2" s="6">
         <v>2</v>
@@ -673,7 +690,7 @@
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="9">
@@ -686,7 +703,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -697,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2">
         <v>2</v>
@@ -710,10 +727,10 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3" s="4">
         <v>100</v>
@@ -725,7 +742,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -733,10 +750,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I4" s="6">
         <v>1</v>
@@ -758,20 +775,22 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="15"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -791,6 +810,41 @@
       <c r="R5" s="9"/>
       <c r="S5" s="17"/>
     </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>50</v>
+      </c>
+      <c r="K6" s="4">
+        <v>50</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ExcelFattureExample.xlsx
+++ b/ExcelFattureExample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Desktop\Lavoro\Genera_Fatture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Desktop\Lavoro\Genaratore_Fatture_ImpresaPulizia\Genera_Fatture\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>AMMINISTRATORE</t>
   </si>
@@ -120,6 +120,30 @@
   </si>
   <si>
     <t>TEST_CON_CONDOMINIO_ASSENTE</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>TEST_CON_SOSPESI</t>
+  </si>
+  <si>
+    <t>1_TEST FATTURA OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2_TEST FATTURA OK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_TEST FATTURA OK </t>
+  </si>
+  <si>
+    <t>4_TEST FATTURA NO</t>
+  </si>
+  <si>
+    <t>5_TEST_CON_CONDOMINIO_ASSENTE</t>
+  </si>
+  <si>
+    <t>6_TEST_CON_SOSPESI</t>
   </si>
 </sst>
 </file>
@@ -180,7 +204,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,8 +257,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -257,17 +287,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -276,7 +295,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -297,10 +316,9 @@
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - Colore 4 2" xfId="4"/>
@@ -585,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,9 +623,14 @@
     <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="1"/>
+    <col min="22" max="22" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -662,9 +685,23 @@
       <c r="R1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="16"/>
+      <c r="S1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -699,9 +736,19 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
-      <c r="S2" s="1"/>
+      <c r="S2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="8">
+        <v>550</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -738,9 +785,19 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="9"/>
-      <c r="S3" s="1"/>
+      <c r="S3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="3">
+        <v>500</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -771,9 +828,19 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="1"/>
+      <c r="S4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="8">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -781,7 +848,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="15"/>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="2"/>
@@ -808,9 +875,21 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="17"/>
+      <c r="S5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W5" s="3">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -824,7 +903,7 @@
       <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="17" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="2">
@@ -843,7 +922,66 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="17"/>
+      <c r="S6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>50</v>
+      </c>
+      <c r="K7" s="4">
+        <v>50</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7" s="3">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
